--- a/data/trans_orig/P1429-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1429-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAB01283-0EAC-4793-9649-740E1005FCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA2A2649-5A13-481C-B55D-1C8CB96DA033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{499C5AAC-4EE8-4F83-AF4A-43ADA5445CE0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{622D136D-9F50-46DC-AEAE-4A6B6B68C352}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="279">
   <si>
     <t>Población con diagnóstico de osteoporosis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>2,03%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>97,97%</t>
   </si>
   <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>94,81%</t>
   </si>
   <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,745 +164,718 @@
     <t>0,57%</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>0,33%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>97,09%</t>
   </si>
   <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>96,74%</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F33590-B788-479B-8AEB-58F39B89A3B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7150A7-7485-4C12-B65D-38107F956CE9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1919,10 +1892,10 @@
         <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1931,13 +1904,13 @@
         <v>9901</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,13 +1925,13 @@
         <v>548070</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>445</v>
@@ -1967,13 +1940,13 @@
         <v>469849</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>969</v>
@@ -1982,13 +1955,13 @@
         <v>1017919</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,7 +2065,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,13 +2080,13 @@
         <v>33826</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -2122,13 +2095,13 @@
         <v>145291</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>175</v>
@@ -2137,13 +2110,13 @@
         <v>179117</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,13 +2131,13 @@
         <v>3242718</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H18" s="7">
         <v>3156</v>
@@ -2173,28 +2146,28 @@
         <v>3233907</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>6336</v>
       </c>
       <c r="N18" s="7">
-        <v>6476623</v>
+        <v>6476624</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,7 +2209,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2250,7 +2223,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2269,7 +2242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D2BC2C-C1DD-4712-B1BE-072B46BA9D41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0DC9A2-22B1-40B5-B1E7-DFD75AFBF231}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2286,7 +2259,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2399,7 +2372,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2429,7 +2402,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,13 +2417,13 @@
         <v>3325</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -2459,13 +2432,13 @@
         <v>109342</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M5" s="7">
         <v>103</v>
@@ -2474,13 +2447,13 @@
         <v>112666</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2495,13 +2468,13 @@
         <v>970315</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H6" s="7">
         <v>1145</v>
@@ -2510,13 +2483,13 @@
         <v>1227346</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M6" s="7">
         <v>2050</v>
@@ -2525,13 +2498,13 @@
         <v>2197662</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,7 +2578,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2653,10 +2626,10 @@
         <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -2665,13 +2638,13 @@
         <v>24685</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -2680,13 +2653,13 @@
         <v>27725</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,13 +2674,13 @@
         <v>1960917</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>1610</v>
@@ -2716,13 +2689,13 @@
         <v>1729907</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>3463</v>
@@ -2731,13 +2704,13 @@
         <v>3690825</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,7 +2784,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2826,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2841,7 +2814,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,7 +2835,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2871,13 +2844,13 @@
         <v>8339</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2886,13 +2859,13 @@
         <v>8339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,10 +2880,10 @@
         <v>481181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>36</v>
@@ -2922,13 +2895,13 @@
         <v>450292</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>843</v>
@@ -2937,13 +2910,13 @@
         <v>931473</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,7 +3020,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3035,13 @@
         <v>6365</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H17" s="7">
         <v>131</v>
@@ -3077,13 +3050,13 @@
         <v>142365</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M17" s="7">
         <v>136</v>
@@ -3092,13 +3065,13 @@
         <v>148730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3086,13 @@
         <v>3412414</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H18" s="7">
         <v>3160</v>
@@ -3128,13 +3101,13 @@
         <v>3407546</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M18" s="7">
         <v>6356</v>
@@ -3143,13 +3116,13 @@
         <v>6819960</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,7 +3178,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3224,7 +3197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A49EFE-B595-42C2-AA8D-4C7F6ACCC7B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9565E124-DCAC-41ED-99BC-766651BF7355}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3241,7 +3214,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3354,7 +3327,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3369,7 +3342,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3399,13 +3372,13 @@
         <v>4779</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>57</v>
@@ -3414,13 +3387,13 @@
         <v>67524</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -3429,13 +3402,13 @@
         <v>72303</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3423,13 @@
         <v>749568</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H6" s="7">
         <v>835</v>
@@ -3465,13 +3438,13 @@
         <v>927136</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M6" s="7">
         <v>1592</v>
@@ -3480,13 +3453,13 @@
         <v>1676704</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,7 +3533,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3575,7 +3548,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3590,7 +3563,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3578,13 @@
         <v>4799</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H9" s="7">
         <v>40</v>
@@ -3620,13 +3593,13 @@
         <v>44344</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -3635,13 +3608,13 @@
         <v>49142</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3629,13 @@
         <v>2071586</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>1868</v>
@@ -3671,13 +3644,13 @@
         <v>1943956</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>3815</v>
@@ -3686,13 +3659,13 @@
         <v>4015543</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,7 +3739,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3796,7 +3769,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3784,13 @@
         <v>2194</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3826,13 +3799,13 @@
         <v>10296</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -3841,13 +3814,13 @@
         <v>12490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3835,13 @@
         <v>544692</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H14" s="7">
         <v>517</v>
@@ -3877,13 +3850,13 @@
         <v>538844</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>1016</v>
@@ -3892,10 +3865,10 @@
         <v>1083536</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>49</v>
@@ -4002,7 +3975,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +3990,13 @@
         <v>11772</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>106</v>
@@ -4032,13 +4005,13 @@
         <v>122163</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -4047,13 +4020,13 @@
         <v>133935</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>215</v>
+        <v>48</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4041,13 @@
         <v>3365846</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="H18" s="7">
         <v>3220</v>
@@ -4083,13 +4056,13 @@
         <v>3409937</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="M18" s="7">
         <v>6423</v>
@@ -4098,13 +4071,13 @@
         <v>6775783</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,7 +4133,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4179,7 +4152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFB1D98-A55C-4E41-A05C-6336D4E20219}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA30E5CB-630A-4065-9ED3-6ECB8CD168E8}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4196,7 +4169,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4309,7 +4282,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4318,13 +4291,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4339,7 +4312,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4327,13 @@
         <v>12284</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="H5" s="7">
         <v>182</v>
@@ -4369,13 +4342,13 @@
         <v>95248</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
@@ -4384,13 +4357,13 @@
         <v>107532</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4378,13 @@
         <v>524369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>243</v>
+        <v>88</v>
       </c>
       <c r="H6" s="7">
         <v>1237</v>
@@ -4420,13 +4393,13 @@
         <v>733276</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="M6" s="7">
         <v>1905</v>
@@ -4435,13 +4408,13 @@
         <v>1257645</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,7 +4488,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4524,13 +4497,13 @@
         <v>718</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4539,13 +4512,13 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,13 +4533,13 @@
         <v>14784</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="H9" s="7">
         <v>104</v>
@@ -4575,13 +4548,13 @@
         <v>61280</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="M9" s="7">
         <v>117</v>
@@ -4590,13 +4563,13 @@
         <v>76065</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4584,13 @@
         <v>2145916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>29</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>2807</v>
@@ -4626,13 +4599,13 @@
         <v>2181528</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
         <v>4784</v>
@@ -4641,13 +4614,13 @@
         <v>4327443</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,7 +4694,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4736,7 +4709,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4751,7 +4724,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4739,13 @@
         <v>2580</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -4781,13 +4754,13 @@
         <v>18514</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -4796,13 +4769,13 @@
         <v>21094</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,13 +4790,13 @@
         <v>669340</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
         <v>967</v>
@@ -4832,13 +4805,13 @@
         <v>693624</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>1643</v>
@@ -4847,13 +4820,13 @@
         <v>1362964</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +4909,13 @@
         <v>3480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4951,13 +4924,13 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4945,13 @@
         <v>29648</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>319</v>
@@ -4987,13 +4960,13 @@
         <v>175043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>173</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>354</v>
@@ -5002,13 +4975,13 @@
         <v>204691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>45</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +4996,13 @@
         <v>3339625</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H18" s="7">
         <v>5011</v>
@@ -5038,13 +5011,13 @@
         <v>3608427</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="M18" s="7">
         <v>8332</v>
@@ -5053,13 +5026,13 @@
         <v>6948052</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,7 +5088,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1429-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1429-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA2A2649-5A13-481C-B55D-1C8CB96DA033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B04C9E4-B133-4BD2-90F1-11D2C443AC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{622D136D-9F50-46DC-AEAE-4A6B6B68C352}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1246D279-AFCE-4628-9DCD-011D0A1AB68F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="283">
   <si>
     <t>Población con diagnóstico de osteoporosis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,778 +95,790 @@
     <t>2,03%</t>
   </si>
   <si>
-    <t>1,27%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>97,03%</t>
   </si>
   <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,68%)</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>95,29%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
   </si>
   <si>
     <t>94,6%</t>
@@ -1287,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7150A7-7485-4C12-B65D-38107F956CE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2150C817-AB59-4E26-8895-3BCC904AFB75}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1498,13 +1510,13 @@
         <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>1016</v>
@@ -1513,13 +1525,13 @@
         <v>1010812</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>1193</v>
@@ -1528,13 +1540,13 @@
         <v>1214160</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>2209</v>
@@ -1543,13 +1555,13 @@
         <v>2224972</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1564,13 +1576,13 @@
         <v>1031723</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>1291</v>
@@ -1579,13 +1591,13 @@
         <v>1315113</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>2329</v>
@@ -1594,18 +1606,18 @@
         <v>2346836</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1623,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1638,7 +1650,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1653,7 +1665,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,13 +1680,13 @@
         <v>9577</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H9" s="7">
         <v>36</v>
@@ -1683,13 +1695,13 @@
         <v>37776</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -1698,34 +1710,34 @@
         <v>47353</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>1640</v>
       </c>
       <c r="D10" s="7">
-        <v>1683835</v>
+        <v>1683836</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>1518</v>
@@ -1734,13 +1746,13 @@
         <v>1549897</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>3158</v>
@@ -1749,13 +1761,13 @@
         <v>3233733</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,16 +1779,16 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>1554</v>
@@ -1785,13 +1797,13 @@
         <v>1587673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>3203</v>
@@ -1800,18 +1812,18 @@
         <v>3281086</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1829,7 +1841,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1844,7 +1856,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1859,7 +1871,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1886,13 @@
         <v>3338</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -1889,13 +1901,13 @@
         <v>6563</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1904,19 +1916,19 @@
         <v>9901</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>524</v>
@@ -1925,13 +1937,13 @@
         <v>548070</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>445</v>
@@ -1940,13 +1952,13 @@
         <v>469849</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>969</v>
@@ -1976,13 +1988,13 @@
         <v>551408</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>452</v>
@@ -1991,13 +2003,13 @@
         <v>476412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>979</v>
@@ -2006,13 +2018,13 @@
         <v>1027820</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,7 +2047,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2050,7 +2062,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2122,13 +2134,13 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>3180</v>
       </c>
       <c r="D18" s="7">
-        <v>3242718</v>
+        <v>3242717</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>87</v>
@@ -2179,16 +2191,16 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>3297</v>
@@ -2197,13 +2209,13 @@
         <v>3379198</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>6511</v>
@@ -2212,13 +2224,13 @@
         <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,7 +2254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0DC9A2-22B1-40B5-B1E7-DFD75AFBF231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444D2899-5F34-4F03-AB9B-5AFA0D963680}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2420,10 +2432,10 @@
         <v>100</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -2432,13 +2444,13 @@
         <v>109342</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" s="7">
         <v>103</v>
@@ -2447,19 +2459,19 @@
         <v>112666</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>905</v>
@@ -2468,13 +2480,13 @@
         <v>970315</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H6" s="7">
         <v>1145</v>
@@ -2483,13 +2495,13 @@
         <v>1227346</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" s="7">
         <v>2050</v>
@@ -2498,13 +2510,13 @@
         <v>2197662</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2531,13 @@
         <v>973640</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>1246</v>
@@ -2534,13 +2546,13 @@
         <v>1336688</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>2153</v>
@@ -2549,18 +2561,18 @@
         <v>2310328</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2578,7 +2590,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2593,7 +2605,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2608,7 +2620,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,10 +2638,10 @@
         <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -2638,13 +2650,13 @@
         <v>24685</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -2653,19 +2665,19 @@
         <v>27725</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>1853</v>
@@ -2674,13 +2686,13 @@
         <v>1960917</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H10" s="7">
         <v>1610</v>
@@ -2689,13 +2701,13 @@
         <v>1729907</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" s="7">
         <v>3463</v>
@@ -2704,10 +2716,10 @@
         <v>3690825</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>131</v>
@@ -2725,13 +2737,13 @@
         <v>1963957</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>1633</v>
@@ -2740,13 +2752,13 @@
         <v>1754592</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>3489</v>
@@ -2755,18 +2767,18 @@
         <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2799,7 +2811,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2814,7 +2826,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2856,13 @@
         <v>8339</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2859,19 +2871,19 @@
         <v>8339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>438</v>
@@ -2880,13 +2892,13 @@
         <v>481181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H14" s="7">
         <v>405</v>
@@ -2895,13 +2907,13 @@
         <v>450292</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>843</v>
@@ -2910,13 +2922,13 @@
         <v>931473</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2943,13 @@
         <v>481181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>412</v>
@@ -2946,13 +2958,13 @@
         <v>458631</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>850</v>
@@ -2961,13 +2973,13 @@
         <v>939812</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,7 +3002,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3005,7 +3017,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3035,13 +3047,13 @@
         <v>6365</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
         <v>131</v>
@@ -3050,13 +3062,13 @@
         <v>142365</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M17" s="7">
         <v>136</v>
@@ -3065,19 +3077,19 @@
         <v>148730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>3196</v>
@@ -3086,13 +3098,13 @@
         <v>3412414</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H18" s="7">
         <v>3160</v>
@@ -3101,13 +3113,13 @@
         <v>3407546</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M18" s="7">
         <v>6356</v>
@@ -3116,13 +3128,13 @@
         <v>6819960</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3149,13 @@
         <v>3418779</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>3291</v>
@@ -3152,13 +3164,13 @@
         <v>3549911</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>6492</v>
@@ -3167,13 +3179,13 @@
         <v>6968690</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,7 +3209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9565E124-DCAC-41ED-99BC-766651BF7355}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6576446-B8BF-4DEC-970F-0285A24FE3D3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3357,7 +3369,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,7 +3426,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>757</v>
@@ -3456,7 +3468,7 @@
         <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>177</v>
@@ -3474,13 +3486,13 @@
         <v>754347</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>892</v>
@@ -3489,13 +3501,13 @@
         <v>994660</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>1654</v>
@@ -3504,18 +3516,18 @@
         <v>1749007</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3533,7 +3545,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3548,7 +3560,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3563,7 +3575,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3590,13 @@
         <v>4799</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="H9" s="7">
         <v>40</v>
@@ -3593,13 +3605,13 @@
         <v>44344</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -3608,19 +3620,19 @@
         <v>49142</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>1947</v>
@@ -3629,13 +3641,13 @@
         <v>2071586</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>1868</v>
@@ -3644,13 +3656,13 @@
         <v>1943956</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>3815</v>
@@ -3659,13 +3671,13 @@
         <v>4015543</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3692,13 @@
         <v>2076385</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>1908</v>
@@ -3695,13 +3707,13 @@
         <v>1988300</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>3860</v>
@@ -3710,18 +3722,18 @@
         <v>4064685</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3739,7 +3751,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3754,7 +3766,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3769,7 +3781,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3796,13 @@
         <v>2194</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3817,16 +3829,16 @@
         <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>499</v>
@@ -3835,13 +3847,13 @@
         <v>544692</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="H14" s="7">
         <v>517</v>
@@ -3850,13 +3862,13 @@
         <v>538844</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7">
         <v>1016</v>
@@ -3865,13 +3877,13 @@
         <v>1083536</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +3898,13 @@
         <v>546886</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>526</v>
@@ -3901,13 +3913,13 @@
         <v>549140</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>1027</v>
@@ -3916,13 +3928,13 @@
         <v>1096026</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,7 +3957,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3960,7 +3972,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3990,13 +4002,13 @@
         <v>11772</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>106</v>
@@ -4005,13 +4017,13 @@
         <v>122163</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -4020,19 +4032,19 @@
         <v>133935</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>3203</v>
@@ -4041,13 +4053,13 @@
         <v>3365846</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>211</v>
+        <v>68</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="H18" s="7">
         <v>3220</v>
@@ -4056,13 +4068,13 @@
         <v>3409937</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M18" s="7">
         <v>6423</v>
@@ -4071,13 +4083,13 @@
         <v>6775783</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4104,13 @@
         <v>3377618</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>3326</v>
@@ -4107,13 +4119,13 @@
         <v>3532100</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>6541</v>
@@ -4122,13 +4134,13 @@
         <v>6909718</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,7 +4164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA30E5CB-630A-4065-9ED3-6ECB8CD168E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689C3076-ADBB-44EA-904D-CEADF24C6E40}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4169,7 +4181,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4282,7 +4294,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4291,13 +4303,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4306,13 +4318,13 @@
         <v>2762</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4339,13 @@
         <v>12284</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H5" s="7">
         <v>182</v>
@@ -4342,13 +4354,13 @@
         <v>95248</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
@@ -4357,19 +4369,19 @@
         <v>107532</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>668</v>
@@ -4378,13 +4390,13 @@
         <v>524369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H6" s="7">
         <v>1237</v>
@@ -4393,13 +4405,13 @@
         <v>733276</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M6" s="7">
         <v>1905</v>
@@ -4408,13 +4420,13 @@
         <v>1257645</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4441,13 @@
         <v>536653</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>1420</v>
@@ -4444,13 +4456,13 @@
         <v>831286</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>2106</v>
@@ -4459,18 +4471,18 @@
         <v>1367939</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4488,7 +4500,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4503,7 +4515,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4512,13 +4524,13 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4545,13 @@
         <v>14784</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H9" s="7">
         <v>104</v>
@@ -4548,13 +4560,13 @@
         <v>61280</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M9" s="7">
         <v>117</v>
@@ -4563,19 +4575,19 @@
         <v>76065</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>244</v>
+        <v>67</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>1977</v>
@@ -4584,13 +4596,13 @@
         <v>2145916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>2807</v>
@@ -4599,13 +4611,13 @@
         <v>2181528</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>4784</v>
@@ -4614,13 +4626,13 @@
         <v>4327443</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4647,13 @@
         <v>2160700</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>2912</v>
@@ -4650,13 +4662,13 @@
         <v>2243526</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>4902</v>
@@ -4665,18 +4677,18 @@
         <v>4404226</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4694,7 +4706,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4709,7 +4721,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4724,7 +4736,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +4751,13 @@
         <v>2580</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -4754,13 +4766,13 @@
         <v>18514</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -4769,19 +4781,19 @@
         <v>21094</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>676</v>
@@ -4790,13 +4802,13 @@
         <v>669340</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>967</v>
@@ -4805,13 +4817,13 @@
         <v>693624</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>1643</v>
@@ -4820,13 +4832,13 @@
         <v>1362964</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4853,13 @@
         <v>671920</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>1000</v>
@@ -4856,13 +4868,13 @@
         <v>712138</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>1680</v>
@@ -4871,13 +4883,13 @@
         <v>1384058</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,7 +4912,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4915,7 +4927,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4924,7 +4936,7 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
@@ -4945,13 +4957,13 @@
         <v>29648</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>266</v>
+        <v>121</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
         <v>319</v>
@@ -4960,13 +4972,13 @@
         <v>175043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
         <v>354</v>
@@ -4975,19 +4987,19 @@
         <v>204691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>3321</v>
@@ -4996,13 +5008,13 @@
         <v>3339625</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>274</v>
+        <v>129</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="H18" s="7">
         <v>5011</v>
@@ -5011,10 +5023,10 @@
         <v>3608427</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>176</v>
@@ -5026,13 +5038,13 @@
         <v>6948052</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5059,13 @@
         <v>3369273</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>5332</v>
@@ -5062,13 +5074,13 @@
         <v>3786950</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>8688</v>
@@ -5077,13 +5089,13 @@
         <v>7156223</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1429-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1429-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{102ED023-E3E3-4633-A81C-FDAD340D0E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{445E2A59-98C8-4B85-BA36-96F85EC9BDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{424FD38B-0BB2-4108-8C79-0DB9D05D3E27}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B03E477D-B285-4330-9055-56E538144298}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="278">
   <si>
     <t>Población con diagnóstico de osteoporosis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -695,190 +695,184 @@
     <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,61%)</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>11,5%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>88,5%</t>
   </si>
   <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F707A00-22A6-45A1-966A-91BFF5F442B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97302731-0F4E-4FDB-A14A-4C75BACF89A2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1441,7 +1435,7 @@
         <v>120</v>
       </c>
       <c r="N4" s="7">
-        <v>121864</v>
+        <v>121863</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1543,7 +1537,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1617,7 +1611,7 @@
         <v>1640</v>
       </c>
       <c r="D8" s="7">
-        <v>1683835</v>
+        <v>1683836</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1668,7 +1662,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1927,7 +1921,7 @@
         <v>3180</v>
       </c>
       <c r="D14" s="7">
-        <v>3242718</v>
+        <v>3242717</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1942,7 +1936,7 @@
         <v>3156</v>
       </c>
       <c r="I14" s="7">
-        <v>3233907</v>
+        <v>3233906</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1957,7 +1951,7 @@
         <v>6336</v>
       </c>
       <c r="N14" s="7">
-        <v>6476623</v>
+        <v>6476624</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1978,7 +1972,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1993,7 +1987,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2008,7 +2002,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2041,7 +2035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC3152E-5C6B-45FD-8305-B2D3D08AAAD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2D42AD-1FE0-4414-A285-2F2AD09BB4A4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2398,7 +2392,7 @@
         <v>3463</v>
       </c>
       <c r="N8" s="7">
-        <v>3690825</v>
+        <v>3690824</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>119</v>
@@ -2449,7 +2443,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2553,7 +2547,7 @@
         <v>843</v>
       </c>
       <c r="N11" s="7">
-        <v>931473</v>
+        <v>931474</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>118</v>
@@ -2604,7 +2598,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2792,7 +2786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F9AEA8-1724-4A1C-8D03-6A349ACA9025}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D615820E-920E-4A20-9523-B5E7AC09AD85}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3304,7 +3298,7 @@
         <v>1016</v>
       </c>
       <c r="N11" s="7">
-        <v>1083536</v>
+        <v>1083537</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>197</v>
@@ -3355,7 +3349,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3543,7 +3537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9197B02-F5BB-4340-A2B2-5E2C7F0F79F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2DE33D-557B-4207-8327-655A49A3C579}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3664,7 +3658,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>12284</v>
+        <v>11420</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>218</v>
@@ -3679,7 +3673,7 @@
         <v>182</v>
       </c>
       <c r="I4" s="7">
-        <v>95248</v>
+        <v>86153</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>221</v>
@@ -3694,7 +3688,7 @@
         <v>200</v>
       </c>
       <c r="N4" s="7">
-        <v>107532</v>
+        <v>97573</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>224</v>
@@ -3715,7 +3709,7 @@
         <v>668</v>
       </c>
       <c r="D5" s="7">
-        <v>524369</v>
+        <v>498770</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>227</v>
@@ -3730,7 +3724,7 @@
         <v>1237</v>
       </c>
       <c r="I5" s="7">
-        <v>733276</v>
+        <v>662760</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>230</v>
@@ -3745,7 +3739,7 @@
         <v>1905</v>
       </c>
       <c r="N5" s="7">
-        <v>1257645</v>
+        <v>1161530</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>233</v>
@@ -3766,7 +3760,7 @@
         <v>686</v>
       </c>
       <c r="D6" s="7">
-        <v>536653</v>
+        <v>510190</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3781,7 +3775,7 @@
         <v>1419</v>
       </c>
       <c r="I6" s="7">
-        <v>828524</v>
+        <v>748913</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3796,7 +3790,7 @@
         <v>2105</v>
       </c>
       <c r="N6" s="7">
-        <v>1365177</v>
+        <v>1259103</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3819,13 +3813,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>14784</v>
+        <v>14413</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>12</v>
@@ -3834,7 +3828,7 @@
         <v>104</v>
       </c>
       <c r="I7" s="7">
-        <v>61280</v>
+        <v>55997</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>237</v>
@@ -3849,7 +3843,7 @@
         <v>117</v>
       </c>
       <c r="N7" s="7">
-        <v>76065</v>
+        <v>70409</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>240</v>
@@ -3870,22 +3864,22 @@
         <v>1977</v>
       </c>
       <c r="D8" s="7">
-        <v>2145916</v>
+        <v>2274678</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>243</v>
       </c>
       <c r="H8" s="7">
         <v>2807</v>
       </c>
       <c r="I8" s="7">
-        <v>2181528</v>
+        <v>2175573</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>244</v>
@@ -3900,7 +3894,7 @@
         <v>4784</v>
       </c>
       <c r="N8" s="7">
-        <v>4327443</v>
+        <v>4450253</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>247</v>
@@ -3921,7 +3915,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2160700</v>
+        <v>2289091</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3936,7 +3930,7 @@
         <v>2911</v>
       </c>
       <c r="I9" s="7">
-        <v>2242808</v>
+        <v>2231570</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3951,7 +3945,7 @@
         <v>4901</v>
       </c>
       <c r="N9" s="7">
-        <v>4403508</v>
+        <v>4520662</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3974,7 +3968,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>2580</v>
+        <v>2484</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>250</v>
@@ -3989,31 +3983,31 @@
         <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>18514</v>
+        <v>16963</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
       </c>
       <c r="N10" s="7">
-        <v>21094</v>
+        <v>19447</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,46 +4019,46 @@
         <v>676</v>
       </c>
       <c r="D11" s="7">
-        <v>669340</v>
+        <v>643090</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H11" s="7">
         <v>967</v>
       </c>
       <c r="I11" s="7">
-        <v>693624</v>
+        <v>641914</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>1643</v>
       </c>
       <c r="N11" s="7">
-        <v>1362964</v>
+        <v>1285004</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,7 +4070,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>671920</v>
+        <v>645574</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4091,7 +4085,7 @@
         <v>1000</v>
       </c>
       <c r="I12" s="7">
-        <v>712138</v>
+        <v>658877</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4106,7 +4100,7 @@
         <v>1680</v>
       </c>
       <c r="N12" s="7">
-        <v>1384058</v>
+        <v>1304451</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4129,46 +4123,46 @@
         <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>29648</v>
+        <v>28317</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>319</v>
       </c>
       <c r="I13" s="7">
-        <v>175043</v>
+        <v>159113</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>354</v>
       </c>
       <c r="N13" s="7">
-        <v>204691</v>
+        <v>187430</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,46 +4174,46 @@
         <v>3321</v>
       </c>
       <c r="D14" s="7">
-        <v>3339625</v>
+        <v>3416538</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>5011</v>
       </c>
       <c r="I14" s="7">
-        <v>3608427</v>
+        <v>3480247</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>8332</v>
       </c>
       <c r="N14" s="7">
-        <v>6948051</v>
+        <v>6896785</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,7 +4225,7 @@
         <v>3356</v>
       </c>
       <c r="D15" s="7">
-        <v>3369273</v>
+        <v>3444855</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4246,7 +4240,7 @@
         <v>5330</v>
       </c>
       <c r="I15" s="7">
-        <v>3783470</v>
+        <v>3639360</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4261,7 +4255,7 @@
         <v>8686</v>
       </c>
       <c r="N15" s="7">
-        <v>7152742</v>
+        <v>7084215</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
